--- a/delta2/lib_patterns/pid-powerview_powersploit.xlsx
+++ b/delta2/lib_patterns/pid-powerview_powersploit.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C323E8C-CCA3-2F43-9BC0-4455F5CC123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D73DE5-1F7A-1C45-A84A-1B104115AEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{B57D52DD-6A0B-8845-B003-C755D45C8861}"/>
   </bookViews>
   <sheets>
     <sheet name="pview_psploit" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -374,9 +374,6 @@
     <t>(process_cmdline CONTAINS ['Get-DomainGPOComputerLocalGroupMapping' OR 'Find-GPOComputerAdmin'])</t>
   </si>
   <si>
-    <t>(process_cmdline CONTAINS ['Get-DomainGPOUserLocalGroupMapping' OR 'Findt-GPOLocation'])</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS ['Get-DomainPolicy' OR 'Get-DomainPoilicyData'])</t>
   </si>
   <si>
@@ -1098,6 +1095,9 @@
   </si>
   <si>
     <t>(process_cmdline CONTAINS 'PowerView')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS ['Get-DomainGPOUserLocalGroupMapping' OR 'Find-GPOLocation'])</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1170,88 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC5BC414-3CE1-B44A-BC28-D6920FAEF49E}" name="Table13473" displayName="Table13473" ref="A1:H111" totalsRowShown="0">
-  <autoFilter ref="A1:H111" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}"/>
+  <autoFilter ref="A1:H111" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="powerview-pid0001"/>
+        <filter val="powerview-pid0002"/>
+        <filter val="powerview-pid0003"/>
+        <filter val="powerview-pid0004"/>
+        <filter val="powerview-pid0005"/>
+        <filter val="powerview-pid0006"/>
+        <filter val="powerview-pid0007"/>
+        <filter val="powerview-pid0008"/>
+        <filter val="powerview-pid0009"/>
+        <filter val="powerview-pid0010"/>
+        <filter val="powerview-pid0011"/>
+        <filter val="powerview-pid0012"/>
+        <filter val="powerview-pid0013"/>
+        <filter val="powerview-pid0014"/>
+        <filter val="powerview-pid0015"/>
+        <filter val="powerview-pid0016"/>
+        <filter val="powerview-pid0017"/>
+        <filter val="powerview-pid0018"/>
+        <filter val="powerview-pid0019"/>
+        <filter val="powerview-pid0020"/>
+        <filter val="powerview-pid0021"/>
+        <filter val="powerview-pid0022"/>
+        <filter val="powerview-pid0023"/>
+        <filter val="powerview-pid0024"/>
+        <filter val="powerview-pid0025"/>
+        <filter val="powerview-pid0026"/>
+        <filter val="powerview-pid0027"/>
+        <filter val="powerview-pid0028"/>
+        <filter val="powerview-pid0029"/>
+        <filter val="powerview-pid0030"/>
+        <filter val="powerview-pid0031"/>
+        <filter val="powerview-pid0032"/>
+        <filter val="powerview-pid0033"/>
+        <filter val="powerview-pid0034"/>
+        <filter val="powerview-pid0035"/>
+        <filter val="powerview-pid0036"/>
+        <filter val="powerview-pid0037"/>
+        <filter val="powerview-pid0038"/>
+        <filter val="powerview-pid0039"/>
+        <filter val="powerview-pid0040"/>
+        <filter val="powerview-pid0041"/>
+        <filter val="powerview-pid0042"/>
+        <filter val="powerview-pid0043"/>
+        <filter val="powerview-pid0044"/>
+        <filter val="powerview-pid0045"/>
+        <filter val="powerview-pid0046"/>
+        <filter val="powerview-pid0047"/>
+        <filter val="powerview-pid0048"/>
+        <filter val="powerview-pid0049"/>
+        <filter val="powerview-pid0050"/>
+        <filter val="powerview-pid0051"/>
+        <filter val="powerview-pid0052"/>
+        <filter val="powerview-pid0053"/>
+        <filter val="powerview-pid0054"/>
+        <filter val="powerview-pid0055"/>
+        <filter val="powerview-pid0056"/>
+        <filter val="powerview-pid0057"/>
+        <filter val="powerview-pid0058"/>
+        <filter val="powerview-pid0059"/>
+        <filter val="powerview-pid0060"/>
+        <filter val="powerview-pid0061"/>
+        <filter val="powerview-pid0062"/>
+        <filter val="powerview-pid0063"/>
+        <filter val="powerview-pid0064"/>
+        <filter val="powerview-pid0065"/>
+        <filter val="powerview-pid0066"/>
+        <filter val="powerview-pid0067"/>
+        <filter val="powerview-pid0068"/>
+        <filter val="powerview-pid0069"/>
+        <filter val="powerview-pid0070"/>
+        <filter val="powerview-pid0071"/>
+        <filter val="powerview-pid0072"/>
+        <filter val="powerview-pid0073"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
+    <sortCondition ref="C1:C111"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{60112967-AF78-6040-A19E-97E41CF22279}" name="delta_pid"/>
     <tableColumn id="2" xr3:uid="{8C80E6B2-8523-FA43-8785-3315C0866179}" name="delta_did"/>
@@ -1505,8 +1586,8 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1518,7 +1599,7 @@
     <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="72.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="85.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="151" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1549,407 +1630,407 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>72</v>
+        <v>353</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1961,15 +2042,15 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1981,15 +2062,15 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -2001,15 +2082,15 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -2021,15 +2102,15 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -2041,15 +2122,15 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -2061,15 +2142,15 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -2081,15 +2162,15 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -2101,15 +2182,15 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -2121,1353 +2202,1353 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="H31" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="H48" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="H49" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="H50" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="H51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="H52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F53" t="s">
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="H53" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="H54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="H55" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H56" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="H57" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="H58" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="H59" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="H60" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="H61" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="H62" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="H63" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="H64" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="H65" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="H66" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H67" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F68" t="s">
         <v>0</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="H68" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="H69" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="H70" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="H71" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="H72" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="H73" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="H74" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>278</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F75" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H75" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>273</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F76" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H76" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>301</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H77" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>300</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>345</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H79" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F80" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H80" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F81" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H81" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>275</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H82" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>339</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F83" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H83" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F85" t="s">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H85" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F86" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H86" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>274</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F87" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H87" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>296</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H88" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="F89" t="s">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H89" t="s">
         <v>236</v>
       </c>
-      <c r="F75" t="s">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1" t="s">
+    </row>
+    <row r="90" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>298</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F90" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H90" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>297</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F91" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>344</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H92" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>240</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F93" t="s">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H93" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="94" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>346</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F94" t="s">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H94" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>243</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F95" t="s">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H95" t="s">
         <v>241</v>
       </c>
-      <c r="B76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F76" t="s">
-        <v>0</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    </row>
+    <row r="96" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>295</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F96" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H96" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>246</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H97" t="s">
         <v>244</v>
       </c>
-      <c r="B77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F77" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H77" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>247</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F78" t="s">
-        <v>0</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H78" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>256</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H79" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>257</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F80" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H80" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>258</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F81" t="s">
-        <v>0</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H81" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>259</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F82" t="s">
-        <v>0</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H82" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>272</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F83" t="s">
-        <v>0</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H83" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>273</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F84" t="s">
-        <v>0</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H84" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>274</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F85" t="s">
-        <v>0</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H85" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>275</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F86" t="s">
-        <v>0</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H86" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>276</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F87" t="s">
-        <v>0</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H87" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>279</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F88" t="s">
-        <v>0</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H88" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>296</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F89" t="s">
-        <v>0</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H89" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>297</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F90" t="s">
-        <v>0</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H90" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>298</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F91" t="s">
-        <v>0</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H91" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>299</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H92" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>300</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F93" t="s">
-        <v>0</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H93" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>301</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F94" t="s">
-        <v>0</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H94" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>302</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F95" t="s">
-        <v>0</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H95" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>315</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F96" t="s">
-        <v>0</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H96" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>316</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F97" t="s">
-        <v>0</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H97" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>317</v>
       </c>
@@ -3475,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F98" t="s">
         <v>0</v>
@@ -3484,267 +3565,267 @@
         <v>306</v>
       </c>
       <c r="H98" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F99" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H99" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>271</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F100" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H100" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>315</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F101" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H101" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="102" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>256</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F102" t="s">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H102" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>255</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H103" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F104" t="s">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>324</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F105" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H105" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>334</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F106" t="s">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H106" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>347</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F107" t="s">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H107" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>258</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F108" t="s">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H108" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>318</v>
       </c>
-      <c r="B99" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F99" t="s">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1" t="s">
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F109" t="s">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H109" t="s">
         <v>307</v>
       </c>
-      <c r="H99" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>319</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F100" t="s">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H100" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>320</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F101" t="s">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H101" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>325</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F102" t="s">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H102" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    </row>
+    <row r="110" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>333</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F110" t="s">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H110" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>332</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F111" t="s">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H111" t="s">
         <v>326</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F103" t="s">
-        <v>0</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H103" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>333</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F104" t="s">
-        <v>0</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H104" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>334</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F105" t="s">
-        <v>0</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H105" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>335</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F106" t="s">
-        <v>0</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H106" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>340</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F107" t="s">
-        <v>0</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H107" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>345</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F108" t="s">
-        <v>0</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H108" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>346</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F109" t="s">
-        <v>0</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H109" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>347</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F110" t="s">
-        <v>0</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H110" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>348</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F111" t="s">
-        <v>0</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="H111" t="s">
-        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib_patterns/pid-powerview_powersploit.xlsx
+++ b/delta2/lib_patterns/pid-powerview_powersploit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D73DE5-1F7A-1C45-A84A-1B104115AEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E39AED-5E7A-EB47-8AEF-B64F0CED9CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{B57D52DD-6A0B-8845-B003-C755D45C8861}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{B57D52DD-6A0B-8845-B003-C755D45C8861}"/>
   </bookViews>
   <sheets>
     <sheet name="pview_psploit" sheetId="3" r:id="rId1"/>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/delta2/lib_patterns/pid-powerview_powersploit.xlsx
+++ b/delta2/lib_patterns/pid-powerview_powersploit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E39AED-5E7A-EB47-8AEF-B64F0CED9CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E99143-5AF2-ED4F-BCF4-DB56EB6A66D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{B57D52DD-6A0B-8845-B003-C755D45C8861}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>delta_pid</t>
   </si>
   <si>
-    <t>powerview-pid0001</t>
-  </si>
-  <si>
     <t>enumerates the Active Directory DNS zones for a given domain</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>PowerView Domain LDAP Function See Description</t>
   </si>
   <si>
-    <t>powerview-pid0002</t>
-  </si>
-  <si>
     <t>returns the domain object for the current (or specified) domain</t>
   </si>
   <si>
@@ -101,12 +95,6 @@
     <t>(process_cmdline CONTAINS ['Get-DomainController' OR ' Get-NetDomainController'])</t>
   </si>
   <si>
-    <t>powerview-pid0003</t>
-  </si>
-  <si>
-    <t>powerview-pid0004</t>
-  </si>
-  <si>
     <t>returns the forest object for the current (or specified) forest</t>
   </si>
   <si>
@@ -170,60 +158,6 @@
     <t>(process_cmdline CONTAINS ['Get-ForestGlobalCatalog' OR ' Get-NetForestGlobalCatalog'])</t>
   </si>
   <si>
-    <t>powerview-pid0005</t>
-  </si>
-  <si>
-    <t>powerview-pid0006</t>
-  </si>
-  <si>
-    <t>powerview-pid0007</t>
-  </si>
-  <si>
-    <t>powerview-pid0008</t>
-  </si>
-  <si>
-    <t>powerview-pid0009</t>
-  </si>
-  <si>
-    <t>powerview-pid0010</t>
-  </si>
-  <si>
-    <t>powerview-pid0011</t>
-  </si>
-  <si>
-    <t>powerview-pid0012</t>
-  </si>
-  <si>
-    <t>powerview-pid0013</t>
-  </si>
-  <si>
-    <t>powerview-pid0014</t>
-  </si>
-  <si>
-    <t>powerview-pid0015</t>
-  </si>
-  <si>
-    <t>powerview-pid0016</t>
-  </si>
-  <si>
-    <t>powerview-pid0017</t>
-  </si>
-  <si>
-    <t>powerview-pid0018</t>
-  </si>
-  <si>
-    <t>powerview-pid0019</t>
-  </si>
-  <si>
-    <t>powerview-pid0020</t>
-  </si>
-  <si>
-    <t>powerview-pid0021</t>
-  </si>
-  <si>
-    <t>powerview-pid0022</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS 'Find-DomainObjectPropertyOutlier' )</t>
   </si>
   <si>
@@ -290,27 +224,6 @@
     <t>returns a list of all fault-tolerant distributed file systems for the current (or specified) domain</t>
   </si>
   <si>
-    <t>powerview-pid0023</t>
-  </si>
-  <si>
-    <t>powerview-pid0024</t>
-  </si>
-  <si>
-    <t>powerview-pid0025</t>
-  </si>
-  <si>
-    <t>powerview-pid0026</t>
-  </si>
-  <si>
-    <t>powerview-pid0027</t>
-  </si>
-  <si>
-    <t>powerview-pid0028</t>
-  </si>
-  <si>
-    <t>powerview-pid0029</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS ['Get-DomainGroup' OR ' Get-NetGroup'])</t>
   </si>
   <si>
@@ -338,9 +251,6 @@
     <t>PowerView Domain GPO Function See Description</t>
   </si>
   <si>
-    <t>powerview-pid0030</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS ['Get-DomainGPO' OR 'Get-NetGPO'])</t>
   </si>
   <si>
@@ -356,18 +266,6 @@
     <t>returns the default domain policy or the domain controller policy for the current domain or a specified domain/domain controller</t>
   </si>
   <si>
-    <t>powerview-pid0031</t>
-  </si>
-  <si>
-    <t>powerview-pid0032</t>
-  </si>
-  <si>
-    <t>powerview-pid0033</t>
-  </si>
-  <si>
-    <t>powerview-pid0034</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS ['Get-DomainGPOLocalGroup' OR 'Get-NetGPOGroup'])</t>
   </si>
   <si>
@@ -395,21 +293,6 @@
     <t>PowerView Domain Trust Function See Description</t>
   </si>
   <si>
-    <t>powerview-pid0035</t>
-  </si>
-  <si>
-    <t>powerview-pid0036</t>
-  </si>
-  <si>
-    <t>powerview-pid0037</t>
-  </si>
-  <si>
-    <t>powerview-pid0038</t>
-  </si>
-  <si>
-    <t>powerview-pid0039</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS ['Get-DomainTrust' OR 'Get-NetDomainTrust'])</t>
   </si>
   <si>
@@ -473,51 +356,6 @@
     <t>searches for files on the given path that match a series of specified criteria</t>
   </si>
   <si>
-    <t>powerview-pid0040</t>
-  </si>
-  <si>
-    <t>powerview-pid0041</t>
-  </si>
-  <si>
-    <t>powerview-pid0042</t>
-  </si>
-  <si>
-    <t>powerview-pid0043</t>
-  </si>
-  <si>
-    <t>powerview-pid0044</t>
-  </si>
-  <si>
-    <t>powerview-pid0045</t>
-  </si>
-  <si>
-    <t>powerview-pid0046</t>
-  </si>
-  <si>
-    <t>powerview-pid0047</t>
-  </si>
-  <si>
-    <t>powerview-pid0048</t>
-  </si>
-  <si>
-    <t>powerview-pid0049</t>
-  </si>
-  <si>
-    <t>powerview-pid0050</t>
-  </si>
-  <si>
-    <t>powerview-pid0051</t>
-  </si>
-  <si>
-    <t>powerview-pid0052</t>
-  </si>
-  <si>
-    <t>powerview-pid0053</t>
-  </si>
-  <si>
-    <t>powerview-pid0054</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS 'Get-NetLocalGroup')</t>
   </si>
   <si>
@@ -587,27 +425,6 @@
     <t>PowerView Threaded Function See Description</t>
   </si>
   <si>
-    <t>powerview-pid0055</t>
-  </si>
-  <si>
-    <t>powerview-pid0056</t>
-  </si>
-  <si>
-    <t>powerview-pid0057</t>
-  </si>
-  <si>
-    <t>powerview-pid0058</t>
-  </si>
-  <si>
-    <t>powerview-pid0059</t>
-  </si>
-  <si>
-    <t>powerview-pid0060</t>
-  </si>
-  <si>
-    <t>powerview-pid0061</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS [ 'Find-DomainUserLocation' OR 'Invoke-UserHunter'])</t>
   </si>
   <si>
@@ -650,15 +467,6 @@
     <t>(process_cmdline CONTAINS [ 'ConvertTo-SID' OR 'Convert-NameToSid'])</t>
   </si>
   <si>
-    <t>powerview-pid0062</t>
-  </si>
-  <si>
-    <t>powerview-pid0063</t>
-  </si>
-  <si>
-    <t>powerview-pid0064</t>
-  </si>
-  <si>
     <t>converts object names between a variety of formats</t>
   </si>
   <si>
@@ -689,33 +497,6 @@
     <t>(process_cmdline CONTAINS 'Invoke-Kerberoast')</t>
   </si>
   <si>
-    <t>powerview-pid0065</t>
-  </si>
-  <si>
-    <t>powerview-pid0066</t>
-  </si>
-  <si>
-    <t>powerview-pid0067</t>
-  </si>
-  <si>
-    <t>powerview-pid0068</t>
-  </si>
-  <si>
-    <t>powerview-pid0069</t>
-  </si>
-  <si>
-    <t>powerview-pid0070</t>
-  </si>
-  <si>
-    <t>powerview-pid0071</t>
-  </si>
-  <si>
-    <t>powerview-pid0072</t>
-  </si>
-  <si>
-    <t>powerview-pid0073</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS 'Get-PathAcl')</t>
   </si>
   <si>
@@ -740,9 +521,6 @@
     <t>(process_cmdline CONTAINS 'Invoke-RevertToSelf')</t>
   </si>
   <si>
-    <t>powersploit-pid0001</t>
-  </si>
-  <si>
     <t>PowerSploit Execution Function See Description</t>
   </si>
   <si>
@@ -758,27 +536,18 @@
     <t>(process_cmdline CONTAINS 'Invoke-ReflectivePEInjection')</t>
   </si>
   <si>
-    <t>powersploit-pid0002</t>
-  </si>
-  <si>
     <t>Injects shellcode into the process ID of your choosing or within PowerShell locally.</t>
   </si>
   <si>
     <t>(process_cmdline CONTAINS 'Invoke-Shellcode')</t>
   </si>
   <si>
-    <t>powersploit-pid0003</t>
-  </si>
-  <si>
     <t>Executes a PowerShell ScriptBlock on a target computer and returns its formatted output using WMI as a C2 channel</t>
   </si>
   <si>
     <t>(process_cmdline CONTAINS 'Invoke-WmiCommand')</t>
   </si>
   <si>
-    <t>powersploit-pid0004</t>
-  </si>
-  <si>
     <t>Compresses, Base-64 encodes, and generates command-line output for a PowerShell payload script.</t>
   </si>
   <si>
@@ -803,18 +572,6 @@
     <t>(process_cmdline CONTAINS 'Remove-Comment')</t>
   </si>
   <si>
-    <t>powersploit-pid0005</t>
-  </si>
-  <si>
-    <t>powersploit-pid0006</t>
-  </si>
-  <si>
-    <t>powersploit-pid0007</t>
-  </si>
-  <si>
-    <t>powersploit-pid0008</t>
-  </si>
-  <si>
     <t>PowerSploit Script Function See Description</t>
   </si>
   <si>
@@ -851,30 +608,12 @@
     <t>PowerSploit Persistence Function See Description</t>
   </si>
   <si>
-    <t>powersploit-pid0009</t>
-  </si>
-  <si>
-    <t>powersploit-pid0010</t>
-  </si>
-  <si>
-    <t>powersploit-pid0011</t>
-  </si>
-  <si>
-    <t>powersploit-pid0012</t>
-  </si>
-  <si>
-    <t>powersploit-pid0013</t>
-  </si>
-  <si>
     <t>PowerSploit AV Bypass Function See Description</t>
   </si>
   <si>
     <t>Locates single Byte AV signatures utilizing the same method as DSplit from "class101".</t>
   </si>
   <si>
-    <t>powersploit-pid0014</t>
-  </si>
-  <si>
     <t>Lists available logon tokens. Creates processes with other users logon tokens, and impersonates logon tokens in the current thread.</t>
   </si>
   <si>
@@ -923,27 +662,6 @@
     <t>(process_cmdline CONTAINS 'Get-GPPAutologon')</t>
   </si>
   <si>
-    <t>powersploit-pid0015</t>
-  </si>
-  <si>
-    <t>powersploit-pid0016</t>
-  </si>
-  <si>
-    <t>powersploit-pid0017</t>
-  </si>
-  <si>
-    <t>powersploit-pid0018</t>
-  </si>
-  <si>
-    <t>powersploit-pid0019</t>
-  </si>
-  <si>
-    <t>powersploit-pid0020</t>
-  </si>
-  <si>
-    <t>powersploit-pid0021</t>
-  </si>
-  <si>
     <t>A function that takes screenshots at a regular interval and saves them to a folder.</t>
   </si>
   <si>
@@ -980,24 +698,6 @@
     <t>(process_cmdline CONTAINS 'Get-VaultCredential')</t>
   </si>
   <si>
-    <t>powersploit-pid0022</t>
-  </si>
-  <si>
-    <t>powersploit-pid0023</t>
-  </si>
-  <si>
-    <t>powersploit-pid0024</t>
-  </si>
-  <si>
-    <t>powersploit-pid0025</t>
-  </si>
-  <si>
-    <t>powersploit-pid0026</t>
-  </si>
-  <si>
-    <t>powersploit-pid0027</t>
-  </si>
-  <si>
     <t>Generates a full-memory minidump of a process</t>
   </si>
   <si>
@@ -1010,12 +710,6 @@
     <t>(process_cmdline CONTAINS 'Get-MicrophoneAudio')</t>
   </si>
   <si>
-    <t>powersploit-pid0028</t>
-  </si>
-  <si>
-    <t>powersploit-pid0029</t>
-  </si>
-  <si>
     <t>Proof of concept code that overwrites the master boot record with the message of your choice.</t>
   </si>
   <si>
@@ -1034,15 +728,6 @@
     <t>Clearing house of common privilege escalation checks, along with some weaponization vectors</t>
   </si>
   <si>
-    <t>powersploit-pid0030</t>
-  </si>
-  <si>
-    <t>powersploit-pid0031</t>
-  </si>
-  <si>
-    <t>powersploit-pid0032</t>
-  </si>
-  <si>
     <t>(process_cmdline CONTAINS 'PowerUp')</t>
   </si>
   <si>
@@ -1055,9 +740,6 @@
     <t>PowerSploit PrivE Function See Description</t>
   </si>
   <si>
-    <t>powersploit-pid0033</t>
-  </si>
-  <si>
     <t>Does a simple port scan using regular sockets, based (pretty) loosely on nmap</t>
   </si>
   <si>
@@ -1070,18 +752,6 @@
     <t>PowerView is series of functions that performs network and Windows domain enumeration and exploitation</t>
   </si>
   <si>
-    <t>powersploit-pid0034</t>
-  </si>
-  <si>
-    <t>powersploit-pid0035</t>
-  </si>
-  <si>
-    <t>powersploit-pid0036</t>
-  </si>
-  <si>
-    <t>powersploit-pid0037</t>
-  </si>
-  <si>
     <t>PowerSploit Recon Function See Description</t>
   </si>
   <si>
@@ -1098,6 +768,336 @@
   </si>
   <si>
     <t>(process_cmdline CONTAINS ['Get-DomainGPOUserLocalGroupMapping' OR 'Find-GPOLocation'])</t>
+  </si>
+  <si>
+    <t>psploit-pid001</t>
+  </si>
+  <si>
+    <t>psploit-pid002</t>
+  </si>
+  <si>
+    <t>psploit-pid003</t>
+  </si>
+  <si>
+    <t>psploit-pid004</t>
+  </si>
+  <si>
+    <t>psploit-pid005</t>
+  </si>
+  <si>
+    <t>psploit-pid006</t>
+  </si>
+  <si>
+    <t>psploit-pid007</t>
+  </si>
+  <si>
+    <t>psploit-pid008</t>
+  </si>
+  <si>
+    <t>psploit-pid009</t>
+  </si>
+  <si>
+    <t>psploit-pid010</t>
+  </si>
+  <si>
+    <t>psploit-pid011</t>
+  </si>
+  <si>
+    <t>psploit-pid012</t>
+  </si>
+  <si>
+    <t>psploit-pid013</t>
+  </si>
+  <si>
+    <t>psploit-pid014</t>
+  </si>
+  <si>
+    <t>psploit-pid015</t>
+  </si>
+  <si>
+    <t>psploit-pid016</t>
+  </si>
+  <si>
+    <t>psploit-pid017</t>
+  </si>
+  <si>
+    <t>psploit-pid018</t>
+  </si>
+  <si>
+    <t>psploit-pid019</t>
+  </si>
+  <si>
+    <t>psploit-pid020</t>
+  </si>
+  <si>
+    <t>psploit-pid021</t>
+  </si>
+  <si>
+    <t>psploit-pid022</t>
+  </si>
+  <si>
+    <t>psploit-pid023</t>
+  </si>
+  <si>
+    <t>psploit-pid024</t>
+  </si>
+  <si>
+    <t>psploit-pid025</t>
+  </si>
+  <si>
+    <t>psploit-pid026</t>
+  </si>
+  <si>
+    <t>psploit-pid027</t>
+  </si>
+  <si>
+    <t>psploit-pid028</t>
+  </si>
+  <si>
+    <t>psploit-pid029</t>
+  </si>
+  <si>
+    <t>psploit-pid030</t>
+  </si>
+  <si>
+    <t>psploit-pid031</t>
+  </si>
+  <si>
+    <t>psploit-pid032</t>
+  </si>
+  <si>
+    <t>psploit-pid033</t>
+  </si>
+  <si>
+    <t>psploit-pid034</t>
+  </si>
+  <si>
+    <t>psploit-pid035</t>
+  </si>
+  <si>
+    <t>psploit-pid036</t>
+  </si>
+  <si>
+    <t>psploit-pid037</t>
+  </si>
+  <si>
+    <t>psploit-pid038</t>
+  </si>
+  <si>
+    <t>psploit-pid039</t>
+  </si>
+  <si>
+    <t>psploit-pid040</t>
+  </si>
+  <si>
+    <t>psploit-pid041</t>
+  </si>
+  <si>
+    <t>psploit-pid042</t>
+  </si>
+  <si>
+    <t>psploit-pid043</t>
+  </si>
+  <si>
+    <t>psploit-pid044</t>
+  </si>
+  <si>
+    <t>psploit-pid045</t>
+  </si>
+  <si>
+    <t>psploit-pid046</t>
+  </si>
+  <si>
+    <t>psploit-pid047</t>
+  </si>
+  <si>
+    <t>psploit-pid048</t>
+  </si>
+  <si>
+    <t>psploit-pid049</t>
+  </si>
+  <si>
+    <t>psploit-pid050</t>
+  </si>
+  <si>
+    <t>psploit-pid051</t>
+  </si>
+  <si>
+    <t>psploit-pid052</t>
+  </si>
+  <si>
+    <t>psploit-pid053</t>
+  </si>
+  <si>
+    <t>psploit-pid054</t>
+  </si>
+  <si>
+    <t>psploit-pid055</t>
+  </si>
+  <si>
+    <t>psploit-pid056</t>
+  </si>
+  <si>
+    <t>psploit-pid057</t>
+  </si>
+  <si>
+    <t>psploit-pid058</t>
+  </si>
+  <si>
+    <t>psploit-pid059</t>
+  </si>
+  <si>
+    <t>psploit-pid060</t>
+  </si>
+  <si>
+    <t>psploit-pid061</t>
+  </si>
+  <si>
+    <t>psploit-pid062</t>
+  </si>
+  <si>
+    <t>psploit-pid063</t>
+  </si>
+  <si>
+    <t>psploit-pid064</t>
+  </si>
+  <si>
+    <t>psploit-pid065</t>
+  </si>
+  <si>
+    <t>psploit-pid066</t>
+  </si>
+  <si>
+    <t>psploit-pid067</t>
+  </si>
+  <si>
+    <t>psploit-pid068</t>
+  </si>
+  <si>
+    <t>psploit-pid069</t>
+  </si>
+  <si>
+    <t>psploit-pid070</t>
+  </si>
+  <si>
+    <t>psploit-pid071</t>
+  </si>
+  <si>
+    <t>psploit-pid072</t>
+  </si>
+  <si>
+    <t>psploit-pid073</t>
+  </si>
+  <si>
+    <t>psploit-pid074</t>
+  </si>
+  <si>
+    <t>psploit-pid075</t>
+  </si>
+  <si>
+    <t>psploit-pid076</t>
+  </si>
+  <si>
+    <t>psploit-pid077</t>
+  </si>
+  <si>
+    <t>psploit-pid078</t>
+  </si>
+  <si>
+    <t>psploit-pid079</t>
+  </si>
+  <si>
+    <t>psploit-pid080</t>
+  </si>
+  <si>
+    <t>psploit-pid081</t>
+  </si>
+  <si>
+    <t>psploit-pid082</t>
+  </si>
+  <si>
+    <t>psploit-pid083</t>
+  </si>
+  <si>
+    <t>psploit-pid084</t>
+  </si>
+  <si>
+    <t>psploit-pid085</t>
+  </si>
+  <si>
+    <t>psploit-pid086</t>
+  </si>
+  <si>
+    <t>psploit-pid087</t>
+  </si>
+  <si>
+    <t>psploit-pid088</t>
+  </si>
+  <si>
+    <t>psploit-pid089</t>
+  </si>
+  <si>
+    <t>psploit-pid090</t>
+  </si>
+  <si>
+    <t>psploit-pid091</t>
+  </si>
+  <si>
+    <t>psploit-pid092</t>
+  </si>
+  <si>
+    <t>psploit-pid093</t>
+  </si>
+  <si>
+    <t>psploit-pid094</t>
+  </si>
+  <si>
+    <t>psploit-pid095</t>
+  </si>
+  <si>
+    <t>psploit-pid096</t>
+  </si>
+  <si>
+    <t>psploit-pid097</t>
+  </si>
+  <si>
+    <t>psploit-pid098</t>
+  </si>
+  <si>
+    <t>psploit-pid099</t>
+  </si>
+  <si>
+    <t>psploit-pid100</t>
+  </si>
+  <si>
+    <t>psploit-pid101</t>
+  </si>
+  <si>
+    <t>psploit-pid102</t>
+  </si>
+  <si>
+    <t>psploit-pid103</t>
+  </si>
+  <si>
+    <t>psploit-pid104</t>
+  </si>
+  <si>
+    <t>psploit-pid105</t>
+  </si>
+  <si>
+    <t>psploit-pid106</t>
+  </si>
+  <si>
+    <t>psploit-pid107</t>
+  </si>
+  <si>
+    <t>psploit-pid108</t>
+  </si>
+  <si>
+    <t>psploit-pid109</t>
+  </si>
+  <si>
+    <t>psploit-pid110</t>
   </si>
 </sst>
 </file>
@@ -1170,87 +1170,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC5BC414-3CE1-B44A-BC28-D6920FAEF49E}" name="Table13473" displayName="Table13473" ref="A1:H111" totalsRowShown="0">
-  <autoFilter ref="A1:H111" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="powerview-pid0001"/>
-        <filter val="powerview-pid0002"/>
-        <filter val="powerview-pid0003"/>
-        <filter val="powerview-pid0004"/>
-        <filter val="powerview-pid0005"/>
-        <filter val="powerview-pid0006"/>
-        <filter val="powerview-pid0007"/>
-        <filter val="powerview-pid0008"/>
-        <filter val="powerview-pid0009"/>
-        <filter val="powerview-pid0010"/>
-        <filter val="powerview-pid0011"/>
-        <filter val="powerview-pid0012"/>
-        <filter val="powerview-pid0013"/>
-        <filter val="powerview-pid0014"/>
-        <filter val="powerview-pid0015"/>
-        <filter val="powerview-pid0016"/>
-        <filter val="powerview-pid0017"/>
-        <filter val="powerview-pid0018"/>
-        <filter val="powerview-pid0019"/>
-        <filter val="powerview-pid0020"/>
-        <filter val="powerview-pid0021"/>
-        <filter val="powerview-pid0022"/>
-        <filter val="powerview-pid0023"/>
-        <filter val="powerview-pid0024"/>
-        <filter val="powerview-pid0025"/>
-        <filter val="powerview-pid0026"/>
-        <filter val="powerview-pid0027"/>
-        <filter val="powerview-pid0028"/>
-        <filter val="powerview-pid0029"/>
-        <filter val="powerview-pid0030"/>
-        <filter val="powerview-pid0031"/>
-        <filter val="powerview-pid0032"/>
-        <filter val="powerview-pid0033"/>
-        <filter val="powerview-pid0034"/>
-        <filter val="powerview-pid0035"/>
-        <filter val="powerview-pid0036"/>
-        <filter val="powerview-pid0037"/>
-        <filter val="powerview-pid0038"/>
-        <filter val="powerview-pid0039"/>
-        <filter val="powerview-pid0040"/>
-        <filter val="powerview-pid0041"/>
-        <filter val="powerview-pid0042"/>
-        <filter val="powerview-pid0043"/>
-        <filter val="powerview-pid0044"/>
-        <filter val="powerview-pid0045"/>
-        <filter val="powerview-pid0046"/>
-        <filter val="powerview-pid0047"/>
-        <filter val="powerview-pid0048"/>
-        <filter val="powerview-pid0049"/>
-        <filter val="powerview-pid0050"/>
-        <filter val="powerview-pid0051"/>
-        <filter val="powerview-pid0052"/>
-        <filter val="powerview-pid0053"/>
-        <filter val="powerview-pid0054"/>
-        <filter val="powerview-pid0055"/>
-        <filter val="powerview-pid0056"/>
-        <filter val="powerview-pid0057"/>
-        <filter val="powerview-pid0058"/>
-        <filter val="powerview-pid0059"/>
-        <filter val="powerview-pid0060"/>
-        <filter val="powerview-pid0061"/>
-        <filter val="powerview-pid0062"/>
-        <filter val="powerview-pid0063"/>
-        <filter val="powerview-pid0064"/>
-        <filter val="powerview-pid0065"/>
-        <filter val="powerview-pid0066"/>
-        <filter val="powerview-pid0067"/>
-        <filter val="powerview-pid0068"/>
-        <filter val="powerview-pid0069"/>
-        <filter val="powerview-pid0070"/>
-        <filter val="powerview-pid0071"/>
-        <filter val="powerview-pid0072"/>
-        <filter val="powerview-pid0073"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
-    <sortCondition ref="C1:C111"/>
+  <autoFilter ref="A1:H111" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H111">
+    <sortCondition ref="A1:A111"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{60112967-AF78-6040-A19E-97E41CF22279}" name="delta_pid"/>
@@ -1586,13 +1508,13 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
@@ -1630,2202 +1552,2202 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" t="s">
-        <v>131</v>
+        <v>165</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="H9" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="H14" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="H15" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>353</v>
+        <v>201</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="H21" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="F25" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="H36" t="s">
-        <v>34</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="H38" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
         <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>289</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>290</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>292</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>294</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>295</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>297</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s">
-        <v>198</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s">
-        <v>200</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="H59" t="s">
-        <v>207</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="H60" t="s">
-        <v>208</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="H61" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="H62" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="H63" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="H64" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="H65" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="H66" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="H67" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>310</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="F68" t="s">
         <v>0</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="H68" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>311</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>185</v>
+        <v>312</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>315</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>189</v>
+        <v>316</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>282</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="F76" t="s">
         <v>0</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>294</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="F78" t="s">
         <v>0</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>292</v>
+        <v>106</v>
       </c>
       <c r="H78" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>321</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>322</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F80" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>323</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>324</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>325</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F83" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>326</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H84" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>327</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" t="s">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>328</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F86" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>329</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>330</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>331</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F89" t="s">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>332</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H90" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>333</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F91" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>334</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H92" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>335</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F93" t="s">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>336</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F94" t="s">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>337</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F95" t="s">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>338</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F96" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>339</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>340</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F98" t="s">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>341</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F99" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>342</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>343</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F101" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F102" t="s">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>345</v>
       </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>346</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F104" t="s">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>347</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F105" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>348</v>
       </c>
-      <c r="F79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G79" s="1" t="s">
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F106" t="s">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>349</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F107" t="s">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>350</v>
       </c>
-      <c r="H79" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>299</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F80" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H80" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>325</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F81" t="s">
-        <v>0</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H81" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>275</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F82" t="s">
-        <v>0</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H82" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>339</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F83" t="s">
-        <v>0</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H83" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>314</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F84" t="s">
-        <v>0</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H84" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>319</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F85" t="s">
-        <v>0</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H85" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>316</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F86" t="s">
-        <v>0</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H86" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>274</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F87" t="s">
-        <v>0</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H87" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>296</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F88" t="s">
-        <v>0</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H88" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>234</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F89" t="s">
-        <v>0</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H89" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>298</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F90" t="s">
-        <v>0</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H90" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>297</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F91" t="s">
-        <v>0</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H91" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>344</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H92" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>240</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F93" t="s">
-        <v>0</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>346</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F94" t="s">
-        <v>0</v>
-      </c>
-      <c r="G94" s="1" t="s">
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F108" t="s">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>351</v>
       </c>
-      <c r="H94" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>243</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F95" t="s">
-        <v>0</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H95" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>295</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F96" t="s">
-        <v>0</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H96" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>246</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F97" t="s">
-        <v>0</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H97" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>317</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F98" t="s">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H98" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>272</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F99" t="s">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H99" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>271</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F100" t="s">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H100" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>315</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F101" t="s">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H101" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>256</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F102" t="s">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H102" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>255</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F103" t="s">
-        <v>0</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H103" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>257</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F104" t="s">
-        <v>0</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H104" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>324</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F105" t="s">
-        <v>0</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H105" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>334</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F106" t="s">
-        <v>0</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H106" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>347</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F107" t="s">
-        <v>0</v>
-      </c>
-      <c r="G107" s="1" t="s">
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F109" t="s">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>352</v>
       </c>
-      <c r="H107" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>258</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F108" t="s">
-        <v>0</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H108" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>318</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F109" t="s">
-        <v>0</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H109" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>333</v>
-      </c>
       <c r="B110" t="s">
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>328</v>
+        <v>138</v>
       </c>
       <c r="F110" t="s">
         <v>0</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>329</v>
+        <v>152</v>
       </c>
       <c r="H110" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="B111" t="s">
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>328</v>
+        <v>138</v>
       </c>
       <c r="F111" t="s">
         <v>0</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>327</v>
+        <v>153</v>
       </c>
       <c r="H111" t="s">
-        <v>326</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
